--- a/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
+++ b/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
@@ -45,8 +45,8 @@
     <t xml:space="preserve">GET</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;FailureResponse&gt;MSISDN is not proper&lt;/FailureResponse&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Endpoint</t>
@@ -353,7 +353,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
+++ b/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Request ID</t>
   </si>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;FailureResponse&gt;MSISDN is not proper&lt;/FailureResponse&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Endpoint</t>
@@ -353,10 +349,10 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
@@ -394,9 +390,7 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -462,16 +456,16 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +493,7 @@
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
+++ b/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Request ID</t>
   </si>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t xml:space="preserve">GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;FailureResponse&gt;MSISDN is not proper&lt;/FailureResponse&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Endpoint</t>
@@ -220,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,7 +245,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,10 +263,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -349,10 +349,10 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
@@ -390,15 +390,17 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="8"/>
       <c r="F3" s="7"/>
     </row>
@@ -456,16 +458,16 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -493,27 +495,27 @@
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
+      <c r="A6" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
+++ b/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="SampleServiceNew_1_0" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="gfd" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="application.properties" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Summary" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SampleServiceNew_1_0" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://172.30.64.23:8443/api/cicd/sampleEsb/441234567890</t>
+  </si>
   <si>
     <t xml:space="preserve">Request ID</t>
   </si>
@@ -37,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Actual Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed/Failed</t>
   </si>
   <si>
     <t xml:space="preserve">success_case</t>
@@ -47,12 +57,6 @@
   <si>
     <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
 &lt;FailureResponse&gt;MSISDN is not proper&lt;/FailureResponse&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://172.30.64.23:8443/api/cicd/sampleEsb/441234567890</t>
   </si>
 </sst>
 </file>
@@ -62,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -86,13 +90,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Söhne"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,19 +98,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF385724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Söhne"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -140,34 +128,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE3E3E3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE3E3E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE3E3E3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE3E3E3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE3E3E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -179,6 +139,34 @@
         <color rgb="FFE3E3E3"/>
       </left>
       <right/>
+      <top style="thin">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FFE3E3E3"/>
@@ -224,48 +212,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,7 +315,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF385724"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -346,13 +326,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="F1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
@@ -362,80 +342,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-    </row>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -458,16 +375,16 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -495,27 +412,86 @@
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
+++ b/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
@@ -69,7 +69,7 @@
     <t xml:space="preserve">GET</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"&gt;  &lt;SuccessResponse&gt;MSISDN is proper&lt;/SuccessResponse&gt;</t>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;\n&lt;SuccessResponse&gt;MSISDN is proper&lt;/SuccessResponse&gt;</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
+++ b/ESB/SampleServiceNew_Esb_1_0/testing/dev/SampleServiceNew_1_0.xlsx
@@ -69,7 +69,8 @@
     <t xml:space="preserve">GET</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;\n&lt;SuccessResponse&gt;MSISDN is proper&lt;/SuccessResponse&gt;</t>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;SuccessResponse&gt;MSISDN is proper&lt;/SuccessResponse&gt;</t>
   </si>
 </sst>
 </file>
@@ -227,7 +228,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,7 +236,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,7 +327,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -363,7 +364,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -423,10 +424,10 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
